--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/42/word_level_predictions_42.xlsx
@@ -502,262 +502,262 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>calibration</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>required</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1906,312 +1906,312 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2894,156 +2894,156 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3085,11 +3085,11 @@
         </is>
       </c>
       <c r="I51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G52" s="2" t="b">
@@ -3137,11 +3137,11 @@
         </is>
       </c>
       <c r="I52" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K52" s="2" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G53" s="2" t="b">
@@ -3189,11 +3189,11 @@
         </is>
       </c>
       <c r="I53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K53" s="2" t="b">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G54" s="2" t="b">
@@ -3241,11 +3241,11 @@
         </is>
       </c>
       <c r="I54" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K54" s="2" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G55" s="2" t="b">
@@ -3293,11 +3293,11 @@
         </is>
       </c>
       <c r="I55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K55" s="2" t="b">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G56" s="2" t="b">
@@ -3345,11 +3345,11 @@
         </is>
       </c>
       <c r="I56" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K56" s="2" t="b">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4246,156 +4246,156 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5338,364 +5338,364 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>9</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>10</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>9</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>11</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" t="n">
         <v>9</v>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" t="n">
         <v>12</v>
       </c>
-      <c r="E97" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" s="2" t="inlineStr">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" t="n">
         <v>9</v>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" t="n">
         <v>13</v>
       </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L98" s="2" t="inlineStr">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>9</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>14</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" t="n">
         <v>9</v>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" t="n">
         <v>15</v>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>9</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" t="n">
         <v>16</v>
       </c>
-      <c r="E101" s="2" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F101" s="2" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G113" s="2" t="b">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6586,156 +6586,156 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G132" s="2" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G134" s="2" t="b">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G136" s="2" t="b">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="F141" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G141" s="2" t="b">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G142" s="2" t="b">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F143" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G143" s="2" t="b">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G144" s="2" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8614,312 +8614,312 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="F163" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9238,364 +9238,364 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9654,314 +9654,314 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" t="inlineStr">
+      <c r="D178" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F178" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>antenna</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>antenna</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>satellite</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>satellite</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>2</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>searching</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>17</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>signal</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>3</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>17</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>searching</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>4</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>17</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>5</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F199" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G199" s="2" t="b">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Missed_E-Event</t>
         </is>
       </c>
     </row>
@@ -13190,104 +13190,104 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" t="n">
         <v>22</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E246" s="2" t="inlineStr">
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F246" s="2" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G246" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="2" t="inlineStr">
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2" t="inlineStr">
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" t="n">
         <v>22</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E247" s="2" t="inlineStr">
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F247" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G247" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2" t="inlineStr">
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2" t="inlineStr">
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13658,208 +13658,208 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>Adjust</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="E255" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>remote</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>controller</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="2" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="2" t="inlineStr">
         <is>
           <t>antennas</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E258" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
+      <c r="F258" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14698,572 +14698,572 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
         <is>
           <t>Stop</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F275" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E276" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
+      <c r="A277" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B277" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
+      <c r="C277" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D277" t="n">
+      <c r="D277" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G277" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I277" t="b">
-        <v>1</v>
-      </c>
-      <c r="J277" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K277" t="b">
-        <v>1</v>
-      </c>
-      <c r="L277" t="inlineStr">
+      <c r="E277" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F277" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G277" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J277" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L277" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
+      <c r="A278" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B278" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C278" s="2" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="D278" t="n">
+      <c r="D278" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G278" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I278" t="b">
-        <v>1</v>
-      </c>
-      <c r="J278" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K278" t="b">
-        <v>1</v>
-      </c>
-      <c r="L278" t="inlineStr">
+      <c r="E278" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F278" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G278" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I278" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J278" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K278" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L278" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
+      <c r="A279" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B279" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C279" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D279" t="n">
+      <c r="D279" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G279" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I279" t="b">
-        <v>1</v>
-      </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K279" t="b">
-        <v>1</v>
-      </c>
-      <c r="L279" t="inlineStr">
+      <c r="E279" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F279" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G279" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I279" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J279" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K279" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L279" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
+      <c r="A280" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C280" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D280" t="n">
+      <c r="D280" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K280" t="b">
-        <v>1</v>
-      </c>
-      <c r="L280" t="inlineStr">
+      <c r="E280" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J280" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L280" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
+      <c r="A281" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C281" s="2" t="inlineStr">
         <is>
           <t>temperature</t>
         </is>
       </c>
-      <c r="D281" t="n">
+      <c r="D281" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K281" t="b">
-        <v>1</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J281" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L281" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D282" t="n">
+      <c r="D282" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K282" t="b">
-        <v>1</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="E282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D283" t="n">
+      <c r="D283" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K283" t="b">
-        <v>1</v>
-      </c>
-      <c r="L283" t="inlineStr">
+      <c r="E283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J283" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
+      <c r="A284" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C284" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D284" t="n">
+      <c r="D284" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" t="b">
-        <v>1</v>
-      </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K284" t="b">
-        <v>1</v>
-      </c>
-      <c r="L284" t="inlineStr">
+      <c r="E284" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F284" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G284" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J284" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L284" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="2" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="E285" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
+      <c r="F285" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I285" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K285" t="b">
-        <v>1</v>
-      </c>
-      <c r="L285" t="inlineStr">
+      <c r="G285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J285" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="F292" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G292" s="2" t="b">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="L292" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15738,208 +15738,208 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2" t="n">
+      <c r="A295" t="n">
         <v>27</v>
       </c>
-      <c r="B295" s="2" t="inlineStr">
+      <c r="B295" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C295" s="2" t="inlineStr">
+      <c r="C295" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D295" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E295" s="2" t="inlineStr">
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F295" s="2" t="inlineStr">
+      <c r="F295" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G295" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H295" s="2" t="inlineStr">
+      <c r="G295" t="b">
+        <v>1</v>
+      </c>
+      <c r="H295" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I295" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K295" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L295" s="2" t="inlineStr">
+      <c r="I295" t="b">
+        <v>1</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K295" t="b">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="2" t="n">
+      <c r="A296" t="n">
         <v>27</v>
       </c>
-      <c r="B296" s="2" t="inlineStr">
+      <c r="B296" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C296" s="2" t="inlineStr">
+      <c r="C296" t="inlineStr">
         <is>
           <t>processor</t>
         </is>
       </c>
-      <c r="D296" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E296" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F296" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G296" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H296" s="2" t="inlineStr">
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G296" t="b">
+        <v>1</v>
+      </c>
+      <c r="H296" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I296" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J296" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K296" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L296" s="2" t="inlineStr">
+      <c r="I296" t="b">
+        <v>1</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K296" t="b">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="2" t="n">
+      <c r="A297" t="n">
         <v>27</v>
       </c>
-      <c r="B297" s="2" t="inlineStr">
+      <c r="B297" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C297" s="2" t="inlineStr">
+      <c r="C297" t="inlineStr">
         <is>
           <t>chip</t>
         </is>
       </c>
-      <c r="D297" s="2" t="n">
+      <c r="D297" t="n">
         <v>2</v>
       </c>
-      <c r="E297" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F297" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G297" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H297" s="2" t="inlineStr">
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G297" t="b">
+        <v>1</v>
+      </c>
+      <c r="H297" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I297" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J297" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K297" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L297" s="2" t="inlineStr">
+      <c r="I297" t="b">
+        <v>1</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K297" t="b">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2" t="n">
+      <c r="A298" t="n">
         <v>27</v>
       </c>
-      <c r="B298" s="2" t="inlineStr">
+      <c r="B298" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C298" s="2" t="inlineStr">
+      <c r="C298" t="inlineStr">
         <is>
           <t>overheated</t>
         </is>
       </c>
-      <c r="D298" s="2" t="n">
+      <c r="D298" t="n">
         <v>3</v>
       </c>
-      <c r="E298" s="2" t="inlineStr">
+      <c r="E298" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F298" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G298" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H298" s="2" t="inlineStr">
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G298" t="b">
+        <v>1</v>
+      </c>
+      <c r="H298" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I298" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K298" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L298" s="2" t="inlineStr">
+      <c r="I298" t="b">
+        <v>1</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K298" t="b">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -15981,11 +15981,11 @@
         </is>
       </c>
       <c r="I299" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K299" s="2" t="b">
@@ -16033,11 +16033,11 @@
         </is>
       </c>
       <c r="I300" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K300" s="2" t="b">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="F301" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G301" s="2" t="b">
@@ -16085,11 +16085,11 @@
         </is>
       </c>
       <c r="I301" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K301" s="2" t="b">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="L301" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="F302" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G302" s="2" t="b">
@@ -16137,11 +16137,11 @@
         </is>
       </c>
       <c r="I302" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K302" s="2" t="b">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="L302" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="F303" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G303" s="2" t="b">
@@ -16189,11 +16189,11 @@
         </is>
       </c>
       <c r="I303" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K303" s="2" t="b">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="L303" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="F304" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G304" s="2" t="b">
@@ -16241,11 +16241,11 @@
         </is>
       </c>
       <c r="I304" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K304" s="2" t="b">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="L304" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="F305" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G305" s="2" t="b">
@@ -16293,11 +16293,11 @@
         </is>
       </c>
       <c r="I305" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K305" s="2" t="b">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="L305" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="F306" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G306" s="2" t="b">
@@ -16345,11 +16345,11 @@
         </is>
       </c>
       <c r="I306" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K306" s="2" t="b">
@@ -16357,7 +16357,7 @@
       </c>
       <c r="L306" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="F307" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G307" s="2" t="b">
@@ -16397,11 +16397,11 @@
         </is>
       </c>
       <c r="I307" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K307" s="2" t="b">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="L307" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="F308" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G308" s="2" t="b">
@@ -16449,11 +16449,11 @@
         </is>
       </c>
       <c r="I308" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K308" s="2" t="b">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="L308" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F309" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G309" s="2" t="b">
@@ -16501,11 +16501,11 @@
         </is>
       </c>
       <c r="I309" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K309" s="2" t="b">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="L309" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="F314" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G314" s="2" t="b">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="L314" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="F322" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G322" s="2" t="b">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="L322" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18442,156 +18442,156 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="n">
+      <c r="A347" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B347" t="inlineStr">
+      <c r="B347" s="2" t="inlineStr">
         <is>
           <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr">
+      <c r="C347" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D347" t="n">
-        <v>0</v>
-      </c>
-      <c r="E347" t="inlineStr">
+      <c r="D347" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F347" t="inlineStr">
+      <c r="F347" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G347" t="b">
-        <v>1</v>
-      </c>
-      <c r="H347" t="inlineStr">
+      <c r="G347" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H347" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I347" t="b">
-        <v>1</v>
-      </c>
-      <c r="J347" t="inlineStr">
+      <c r="I347" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J347" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K347" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L347" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B348" s="2" t="inlineStr">
+        <is>
+          <t>GPS module error Restart aircraft .</t>
+        </is>
+      </c>
+      <c r="C348" s="2" t="inlineStr">
+        <is>
+          <t>module</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E348" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F348" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G348" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H348" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K347" t="b">
-        <v>1</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
+      <c r="I348" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J348" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K348" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L348" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B348" t="inlineStr">
+      <c r="B349" s="2" t="inlineStr">
         <is>
           <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>module</t>
-        </is>
-      </c>
-      <c r="D348" t="n">
-        <v>1</v>
-      </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G348" t="b">
-        <v>1</v>
-      </c>
-      <c r="H348" t="inlineStr">
+      <c r="C349" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E349" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F349" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G349" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H349" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I348" t="b">
-        <v>1</v>
-      </c>
-      <c r="J348" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K348" t="b">
-        <v>1</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>31</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>GPS module error Restart aircraft .</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D349" t="n">
-        <v>2</v>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G349" t="b">
-        <v>1</v>
-      </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I349" t="b">
-        <v>1</v>
-      </c>
-      <c r="J349" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K349" t="b">
-        <v>1</v>
-      </c>
-      <c r="L349" t="inlineStr">
+      <c r="I349" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J349" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K349" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L349" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -18621,7 +18621,7 @@
       </c>
       <c r="F350" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G350" s="2" t="b">
@@ -18633,11 +18633,11 @@
         </is>
       </c>
       <c r="I350" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J350" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K350" s="2" t="b">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="L350" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -18673,7 +18673,7 @@
       </c>
       <c r="F351" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G351" s="2" t="b">
@@ -18685,11 +18685,11 @@
         </is>
       </c>
       <c r="I351" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J351" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K351" s="2" t="b">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="L351" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18910,156 +18910,156 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="n">
+      <c r="A356" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B356" t="inlineStr">
+      <c r="B356" s="2" t="inlineStr">
         <is>
           <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
+      <c r="C356" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D356" t="n">
+      <c r="D356" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E356" t="inlineStr">
+      <c r="E356" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G356" t="b">
-        <v>1</v>
-      </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I356" t="b">
-        <v>1</v>
-      </c>
-      <c r="J356" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K356" t="b">
-        <v>1</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F356" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G356" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H356" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I356" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J356" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K356" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L356" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="n">
+      <c r="A357" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B357" t="inlineStr">
+      <c r="B357" s="2" t="inlineStr">
         <is>
           <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
+      <c r="C357" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D357" t="n">
+      <c r="D357" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G357" t="b">
-        <v>1</v>
-      </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I357" t="b">
-        <v>1</v>
-      </c>
-      <c r="J357" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K357" t="b">
-        <v>1</v>
-      </c>
-      <c r="L357" t="inlineStr">
+      <c r="E357" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F357" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G357" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H357" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I357" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J357" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K357" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L357" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="n">
+      <c r="A358" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B358" t="inlineStr">
+      <c r="B358" s="2" t="inlineStr">
         <is>
           <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
+      <c r="C358" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D358" t="n">
+      <c r="D358" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E358" t="inlineStr">
+      <c r="E358" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F358" t="inlineStr">
+      <c r="F358" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G358" t="b">
-        <v>1</v>
-      </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I358" t="b">
-        <v>1</v>
-      </c>
-      <c r="J358" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K358" t="b">
-        <v>1</v>
-      </c>
-      <c r="L358" t="inlineStr">
+      <c r="G358" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H358" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I358" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J358" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K358" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L358" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -21198,156 +21198,156 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="n">
+      <c r="A400" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B400" t="inlineStr">
+      <c r="B400" s="2" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr">
+      <c r="C400" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D400" t="n">
+      <c r="D400" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E400" t="inlineStr">
+      <c r="E400" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G400" t="b">
-        <v>1</v>
-      </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I400" t="b">
-        <v>1</v>
-      </c>
-      <c r="J400" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K400" t="b">
-        <v>1</v>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F400" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G400" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H400" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I400" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J400" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K400" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L400" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="n">
+      <c r="A401" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B401" t="inlineStr">
+      <c r="B401" s="2" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr">
+      <c r="C401" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D401" t="n">
+      <c r="D401" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E401" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G401" t="b">
-        <v>1</v>
-      </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I401" t="b">
-        <v>1</v>
-      </c>
-      <c r="J401" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K401" t="b">
-        <v>1</v>
-      </c>
-      <c r="L401" t="inlineStr">
+      <c r="E401" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F401" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G401" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H401" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I401" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J401" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K401" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L401" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="n">
+      <c r="A402" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B402" t="inlineStr">
+      <c r="B402" s="2" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr">
+      <c r="C402" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D402" t="n">
+      <c r="D402" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E402" t="inlineStr">
+      <c r="E402" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F402" t="inlineStr">
+      <c r="F402" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G402" t="b">
-        <v>1</v>
-      </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I402" t="b">
-        <v>1</v>
-      </c>
-      <c r="J402" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K402" t="b">
-        <v>1</v>
-      </c>
-      <c r="L402" t="inlineStr">
+      <c r="G402" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H402" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I402" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J402" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K402" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L402" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="F436" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G436" s="2" t="b">
@@ -23117,7 +23117,7 @@
       </c>
       <c r="L436" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Missed_E-Event</t>
         </is>
       </c>
     </row>
@@ -23197,7 +23197,7 @@
       </c>
       <c r="F438" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G438" s="2" t="b">
@@ -23221,7 +23221,7 @@
       </c>
       <c r="L438" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23249,7 +23249,7 @@
       </c>
       <c r="F439" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G439" s="2" t="b">
@@ -23273,7 +23273,7 @@
       </c>
       <c r="L439" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="n">
+      <c r="A468" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B468" t="inlineStr">
+      <c r="B468" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
+      <c r="C468" s="2" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E468" t="inlineStr">
+      <c r="E468" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G468" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" t="b">
-        <v>1</v>
-      </c>
-      <c r="J468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K468" t="b">
-        <v>1</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F468" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J468" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L468" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="n">
+      <c r="A469" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B469" t="inlineStr">
+      <c r="B469" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr">
+      <c r="C469" s="2" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" t="n">
+      <c r="D469" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" t="b">
-        <v>1</v>
-      </c>
-      <c r="J469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K469" t="b">
-        <v>1</v>
-      </c>
-      <c r="L469" t="inlineStr">
+      <c r="E469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J469" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L469" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="n">
+      <c r="A470" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B470" t="inlineStr">
+      <c r="B470" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
+      <c r="C470" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" t="n">
+      <c r="D470" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" t="b">
-        <v>1</v>
-      </c>
-      <c r="J470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K470" t="b">
-        <v>1</v>
-      </c>
-      <c r="L470" t="inlineStr">
+      <c r="E470" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J470" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L470" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="n">
+      <c r="A471" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B471" t="inlineStr">
+      <c r="B471" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr">
+      <c r="C471" s="2" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" t="n">
+      <c r="D471" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" t="b">
-        <v>1</v>
-      </c>
-      <c r="J471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K471" t="b">
-        <v>1</v>
-      </c>
-      <c r="L471" t="inlineStr">
+      <c r="E471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J471" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L471" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="n">
+      <c r="A472" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B472" t="inlineStr">
+      <c r="B472" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr">
+      <c r="C472" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" t="n">
+      <c r="D472" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" t="b">
-        <v>1</v>
-      </c>
-      <c r="J472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K472" t="b">
-        <v>1</v>
-      </c>
-      <c r="L472" t="inlineStr">
+      <c r="E472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J472" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L472" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="n">
+      <c r="A473" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B473" t="inlineStr">
+      <c r="B473" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr">
+      <c r="C473" s="2" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" t="n">
+      <c r="D473" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" t="b">
-        <v>1</v>
-      </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K473" t="b">
-        <v>1</v>
-      </c>
-      <c r="L473" t="inlineStr">
+      <c r="E473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J473" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L473" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B474" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C474" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E474" t="inlineStr">
+      <c r="E474" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G474" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" t="b">
-        <v>1</v>
-      </c>
-      <c r="J474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K474" t="b">
-        <v>1</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F474" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G474" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J474" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L474" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25358,104 +25358,104 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="n">
+      <c r="A480" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B480" t="inlineStr">
+      <c r="B480" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C480" t="inlineStr">
+      <c r="C480" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D480" t="n">
+      <c r="D480" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E480" t="inlineStr">
+      <c r="E480" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F480" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G480" t="b">
-        <v>1</v>
-      </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I480" t="b">
-        <v>1</v>
-      </c>
-      <c r="J480" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K480" t="b">
-        <v>1</v>
-      </c>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F480" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G480" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H480" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I480" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J480" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K480" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L480" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="n">
+      <c r="A481" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B481" t="inlineStr">
+      <c r="B481" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C481" t="inlineStr">
+      <c r="C481" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D481" t="n">
+      <c r="D481" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E481" t="inlineStr">
+      <c r="E481" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F481" t="inlineStr">
+      <c r="F481" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G481" t="b">
-        <v>1</v>
-      </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I481" t="b">
-        <v>1</v>
-      </c>
-      <c r="J481" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K481" t="b">
-        <v>1</v>
-      </c>
-      <c r="L481" t="inlineStr">
+      <c r="G481" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H481" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I481" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J481" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K481" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L481" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -26005,7 +26005,7 @@
       </c>
       <c r="F492" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G492" s="2" t="b">
@@ -26029,7 +26029,7 @@
       </c>
       <c r="L492" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="F493" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G493" s="2" t="b">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="L493" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/42/word_level_predictions_42.xlsx
@@ -502,262 +502,262 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>IMU calibration required Calibrate IMU .</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>calibration</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>calibration</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>required</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Calibrate</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Calibrate</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>IMU calibration required Calibrate IMU .</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1906,312 +1906,312 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>5</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" t="n">
         <v>6</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>7</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>8</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2894,156 +2894,156 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3085,11 +3085,11 @@
         </is>
       </c>
       <c r="I51" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G52" s="2" t="b">
@@ -3137,11 +3137,11 @@
         </is>
       </c>
       <c r="I52" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K52" s="2" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G53" s="2" t="b">
@@ -3189,11 +3189,11 @@
         </is>
       </c>
       <c r="I53" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K53" s="2" t="b">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G54" s="2" t="b">
@@ -3241,11 +3241,11 @@
         </is>
       </c>
       <c r="I54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K54" s="2" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G55" s="2" t="b">
@@ -3293,11 +3293,11 @@
         </is>
       </c>
       <c r="I55" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K55" s="2" t="b">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G56" s="2" t="b">
@@ -3345,11 +3345,11 @@
         </is>
       </c>
       <c r="I56" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K56" s="2" t="b">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4246,156 +4246,156 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" t="n">
         <v>7</v>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" t="n">
         <v>3</v>
       </c>
-      <c r="E74" s="2" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>7</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" t="n">
         <v>4</v>
       </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>7</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" t="n">
         <v>5</v>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5338,364 +5338,364 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K98" t="b">
-        <v>1</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E101" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G113" s="2" t="b">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -6586,156 +6586,156 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>12</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>3</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>12</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>4</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>12</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>5</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G132" s="2" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G134" s="2" t="b">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G136" s="2" t="b">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="F141" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G141" s="2" t="b">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G142" s="2" t="b">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F143" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G143" s="2" t="b">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G144" s="2" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -8614,312 +8614,312 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>15</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>15</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>4</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>15</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>5</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" t="n">
         <v>15</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" t="n">
         <v>6</v>
       </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" t="n">
         <v>15</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" t="n">
         <v>7</v>
       </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" t="n">
         <v>15</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" t="n">
         <v>8</v>
       </c>
-      <c r="E163" s="2" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" s="2" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9238,364 +9238,364 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" t="n">
         <v>16</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" t="n">
         <v>5</v>
       </c>
-      <c r="E170" s="2" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" t="n">
         <v>16</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" t="n">
         <v>6</v>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>16</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>7</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>16</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>8</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>9</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" t="n">
         <v>10</v>
       </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>11</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9654,314 +9654,314 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>17</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" s="2" t="inlineStr">
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F178" s="2" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>17</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>antenna</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>17</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>satellite</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>2</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>17</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>3</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>17</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>searching</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>4</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>17</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>5</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F199" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G199" s="2" t="b">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-Event</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -13190,104 +13190,104 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D246" t="n">
-        <v>0</v>
-      </c>
-      <c r="E246" t="inlineStr">
+      <c r="D246" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F246" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
+      <c r="G246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I246" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr">
+      <c r="I246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B247" s="2" t="inlineStr">
+        <is>
+          <t>Weak signal Adjust antennas .</t>
+        </is>
+      </c>
+      <c r="C247" s="2" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F247" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>22</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Weak signal Adjust antennas .</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>signal</t>
-        </is>
-      </c>
-      <c r="D247" t="n">
-        <v>1</v>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="I247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13658,208 +13658,208 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>23</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>Adjust</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>4</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
+      <c r="E255" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>23</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>remote</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>5</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>23</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>controller</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>6</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" t="n">
         <v>23</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>antennas</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" t="n">
         <v>7</v>
       </c>
-      <c r="E258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F258" s="2" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14698,572 +14698,572 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>25</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>Stop</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>2</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>25</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>3</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F276" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="n">
+      <c r="A277" t="n">
         <v>25</v>
       </c>
-      <c r="B277" s="2" t="inlineStr">
+      <c r="B277" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C277" s="2" t="inlineStr">
+      <c r="C277" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D277" s="2" t="n">
+      <c r="D277" t="n">
         <v>4</v>
       </c>
-      <c r="E277" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F277" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G277" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I277" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K277" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L277" s="2" t="inlineStr">
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G277" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I277" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K277" t="b">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="n">
+      <c r="A278" t="n">
         <v>25</v>
       </c>
-      <c r="B278" s="2" t="inlineStr">
+      <c r="B278" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C278" s="2" t="inlineStr">
+      <c r="C278" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="D278" s="2" t="n">
+      <c r="D278" t="n">
         <v>5</v>
       </c>
-      <c r="E278" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F278" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G278" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I278" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K278" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L278" s="2" t="inlineStr">
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G278" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I278" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K278" t="b">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
+      <c r="A279" t="n">
         <v>25</v>
       </c>
-      <c r="B279" s="2" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C279" s="2" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D279" s="2" t="n">
+      <c r="D279" t="n">
         <v>6</v>
       </c>
-      <c r="E279" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F279" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G279" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I279" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K279" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L279" s="2" t="inlineStr">
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G279" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I279" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K279" t="b">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" t="n">
         <v>25</v>
       </c>
-      <c r="B280" s="2" t="inlineStr">
+      <c r="B280" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C280" s="2" t="inlineStr">
+      <c r="C280" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D280" s="2" t="n">
+      <c r="D280" t="n">
         <v>7</v>
       </c>
-      <c r="E280" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F280" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L280" s="2" t="inlineStr">
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K280" t="b">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" t="n">
         <v>25</v>
       </c>
-      <c r="B281" s="2" t="inlineStr">
+      <c r="B281" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C281" s="2" t="inlineStr">
+      <c r="C281" t="inlineStr">
         <is>
           <t>temperature</t>
         </is>
       </c>
-      <c r="D281" s="2" t="n">
+      <c r="D281" t="n">
         <v>8</v>
       </c>
-      <c r="E281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G281" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L281" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K281" t="b">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" t="n">
         <v>25</v>
       </c>
-      <c r="B282" s="2" t="inlineStr">
+      <c r="B282" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C282" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
+      <c r="D282" t="n">
         <v>9</v>
       </c>
-      <c r="E282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L282" s="2" t="inlineStr">
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K282" t="b">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" t="n">
         <v>25</v>
       </c>
-      <c r="B283" s="2" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
+      <c r="D283" t="n">
         <v>10</v>
       </c>
-      <c r="E283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L283" s="2" t="inlineStr">
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K283" t="b">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" t="n">
         <v>25</v>
       </c>
-      <c r="B284" s="2" t="inlineStr">
+      <c r="B284" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C284" s="2" t="inlineStr">
+      <c r="C284" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D284" s="2" t="n">
+      <c r="D284" t="n">
         <v>11</v>
       </c>
-      <c r="E284" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F284" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G284" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L284" s="2" t="inlineStr">
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G284" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" t="b">
+        <v>1</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K284" t="b">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" t="n">
         <v>25</v>
       </c>
-      <c r="B285" s="2" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C285" s="2" t="inlineStr">
+      <c r="C285" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D285" s="2" t="n">
+      <c r="D285" t="n">
         <v>12</v>
       </c>
-      <c r="E285" s="2" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F285" s="2" t="inlineStr">
+      <c r="F285" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L285" s="2" t="inlineStr">
+      <c r="G285" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I285" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K285" t="b">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="F292" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G292" s="2" t="b">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="L292" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15738,208 +15738,208 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
+      <c r="A295" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B295" t="inlineStr">
+      <c r="B295" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
+      <c r="C295" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D295" t="n">
-        <v>0</v>
-      </c>
-      <c r="E295" t="inlineStr">
+      <c r="D295" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F295" t="inlineStr">
+      <c r="F295" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G295" t="b">
-        <v>1</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="G295" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H295" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I295" t="b">
-        <v>1</v>
-      </c>
-      <c r="J295" t="inlineStr">
+      <c r="I295" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J295" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K295" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L295" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+        </is>
+      </c>
+      <c r="C296" s="2" t="inlineStr">
+        <is>
+          <t>processor</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E296" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F296" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G296" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H296" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K295" t="b">
-        <v>1</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
+      <c r="I296" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J296" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K296" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L296" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B296" t="inlineStr">
+      <c r="B297" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>processor</t>
-        </is>
-      </c>
-      <c r="D296" t="n">
-        <v>1</v>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G296" t="b">
-        <v>1</v>
-      </c>
-      <c r="H296" t="inlineStr">
+      <c r="C297" s="2" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E297" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F297" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G297" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H297" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I296" t="b">
-        <v>1</v>
-      </c>
-      <c r="J296" t="inlineStr">
+      <c r="I297" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J297" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K297" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L297" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B298" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+        </is>
+      </c>
+      <c r="C298" s="2" t="inlineStr">
+        <is>
+          <t>overheated</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E298" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F298" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G298" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H298" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K296" t="b">
-        <v>1</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>27</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="D297" t="n">
-        <v>2</v>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G297" t="b">
-        <v>1</v>
-      </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I297" t="b">
-        <v>1</v>
-      </c>
-      <c r="J297" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K297" t="b">
-        <v>1</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>27</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>overheated</t>
-        </is>
-      </c>
-      <c r="D298" t="n">
-        <v>3</v>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G298" t="b">
-        <v>1</v>
-      </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I298" t="b">
-        <v>1</v>
-      </c>
-      <c r="J298" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K298" t="b">
-        <v>1</v>
-      </c>
-      <c r="L298" t="inlineStr">
+      <c r="I298" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J298" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K298" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L298" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -15981,11 +15981,11 @@
         </is>
       </c>
       <c r="I299" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K299" s="2" t="b">
@@ -16033,11 +16033,11 @@
         </is>
       </c>
       <c r="I300" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K300" s="2" t="b">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="F301" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G301" s="2" t="b">
@@ -16085,11 +16085,11 @@
         </is>
       </c>
       <c r="I301" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K301" s="2" t="b">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="L301" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="F302" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G302" s="2" t="b">
@@ -16137,11 +16137,11 @@
         </is>
       </c>
       <c r="I302" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K302" s="2" t="b">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="L302" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="F303" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G303" s="2" t="b">
@@ -16189,11 +16189,11 @@
         </is>
       </c>
       <c r="I303" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K303" s="2" t="b">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="L303" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="F304" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G304" s="2" t="b">
@@ -16241,11 +16241,11 @@
         </is>
       </c>
       <c r="I304" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K304" s="2" t="b">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="L304" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="F305" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G305" s="2" t="b">
@@ -16293,11 +16293,11 @@
         </is>
       </c>
       <c r="I305" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K305" s="2" t="b">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="L305" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="F306" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G306" s="2" t="b">
@@ -16345,11 +16345,11 @@
         </is>
       </c>
       <c r="I306" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K306" s="2" t="b">
@@ -16357,7 +16357,7 @@
       </c>
       <c r="L306" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="F307" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G307" s="2" t="b">
@@ -16397,11 +16397,11 @@
         </is>
       </c>
       <c r="I307" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K307" s="2" t="b">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="L307" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="F308" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G308" s="2" t="b">
@@ -16449,11 +16449,11 @@
         </is>
       </c>
       <c r="I308" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K308" s="2" t="b">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="L308" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F309" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G309" s="2" t="b">
@@ -16501,11 +16501,11 @@
         </is>
       </c>
       <c r="I309" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K309" s="2" t="b">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="L309" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="F314" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G314" s="2" t="b">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="L314" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="F322" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G322" s="2" t="b">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="L322" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18442,156 +18442,156 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="2" t="n">
+      <c r="A347" t="n">
         <v>31</v>
       </c>
-      <c r="B347" s="2" t="inlineStr">
+      <c r="B347" t="inlineStr">
         <is>
           <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C347" s="2" t="inlineStr">
+      <c r="C347" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D347" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E347" s="2" t="inlineStr">
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F347" s="2" t="inlineStr">
+      <c r="F347" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G347" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H347" s="2" t="inlineStr">
+      <c r="G347" t="b">
+        <v>1</v>
+      </c>
+      <c r="H347" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I347" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J347" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K347" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L347" s="2" t="inlineStr">
+      <c r="I347" t="b">
+        <v>1</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K347" t="b">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="2" t="n">
+      <c r="A348" t="n">
         <v>31</v>
       </c>
-      <c r="B348" s="2" t="inlineStr">
+      <c r="B348" t="inlineStr">
         <is>
           <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C348" s="2" t="inlineStr">
+      <c r="C348" t="inlineStr">
         <is>
           <t>module</t>
         </is>
       </c>
-      <c r="D348" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E348" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F348" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G348" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H348" s="2" t="inlineStr">
+      <c r="D348" t="n">
+        <v>1</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G348" t="b">
+        <v>1</v>
+      </c>
+      <c r="H348" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I348" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J348" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K348" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L348" s="2" t="inlineStr">
+      <c r="I348" t="b">
+        <v>1</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K348" t="b">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="2" t="n">
+      <c r="A349" t="n">
         <v>31</v>
       </c>
-      <c r="B349" s="2" t="inlineStr">
+      <c r="B349" t="inlineStr">
         <is>
           <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C349" s="2" t="inlineStr">
+      <c r="C349" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D349" s="2" t="n">
+      <c r="D349" t="n">
         <v>2</v>
       </c>
-      <c r="E349" s="2" t="inlineStr">
+      <c r="E349" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F349" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G349" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H349" s="2" t="inlineStr">
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G349" t="b">
+        <v>1</v>
+      </c>
+      <c r="H349" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I349" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J349" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K349" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L349" s="2" t="inlineStr">
+      <c r="I349" t="b">
+        <v>1</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K349" t="b">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -18621,7 +18621,7 @@
       </c>
       <c r="F350" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G350" s="2" t="b">
@@ -18633,11 +18633,11 @@
         </is>
       </c>
       <c r="I350" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K350" s="2" t="b">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="L350" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18673,7 +18673,7 @@
       </c>
       <c r="F351" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G351" s="2" t="b">
@@ -18685,11 +18685,11 @@
         </is>
       </c>
       <c r="I351" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J351" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K351" s="2" t="b">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="L351" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18910,156 +18910,156 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="2" t="n">
+      <c r="A356" t="n">
         <v>32</v>
       </c>
-      <c r="B356" s="2" t="inlineStr">
+      <c r="B356" t="inlineStr">
         <is>
           <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
-      <c r="C356" s="2" t="inlineStr">
+      <c r="C356" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D356" s="2" t="n">
+      <c r="D356" t="n">
         <v>3</v>
       </c>
-      <c r="E356" s="2" t="inlineStr">
+      <c r="E356" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F356" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G356" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H356" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I356" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J356" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K356" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L356" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G356" t="b">
+        <v>1</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I356" t="b">
+        <v>1</v>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K356" t="b">
+        <v>1</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="2" t="n">
+      <c r="A357" t="n">
         <v>32</v>
       </c>
-      <c r="B357" s="2" t="inlineStr">
+      <c r="B357" t="inlineStr">
         <is>
           <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
-      <c r="C357" s="2" t="inlineStr">
+      <c r="C357" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D357" s="2" t="n">
+      <c r="D357" t="n">
         <v>4</v>
       </c>
-      <c r="E357" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F357" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G357" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H357" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I357" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J357" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K357" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L357" s="2" t="inlineStr">
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G357" t="b">
+        <v>1</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I357" t="b">
+        <v>1</v>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K357" t="b">
+        <v>1</v>
+      </c>
+      <c r="L357" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="2" t="n">
+      <c r="A358" t="n">
         <v>32</v>
       </c>
-      <c r="B358" s="2" t="inlineStr">
+      <c r="B358" t="inlineStr">
         <is>
           <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
-      <c r="C358" s="2" t="inlineStr">
+      <c r="C358" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D358" s="2" t="n">
+      <c r="D358" t="n">
         <v>5</v>
       </c>
-      <c r="E358" s="2" t="inlineStr">
+      <c r="E358" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F358" s="2" t="inlineStr">
+      <c r="F358" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G358" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H358" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I358" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J358" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K358" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L358" s="2" t="inlineStr">
+      <c r="G358" t="b">
+        <v>1</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I358" t="b">
+        <v>1</v>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K358" t="b">
+        <v>1</v>
+      </c>
+      <c r="L358" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -21198,156 +21198,156 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="2" t="n">
+      <c r="A400" t="n">
         <v>36</v>
       </c>
-      <c r="B400" s="2" t="inlineStr">
+      <c r="B400" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C400" s="2" t="inlineStr">
+      <c r="C400" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D400" s="2" t="n">
+      <c r="D400" t="n">
         <v>3</v>
       </c>
-      <c r="E400" s="2" t="inlineStr">
+      <c r="E400" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F400" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G400" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H400" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I400" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J400" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K400" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L400" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G400" t="b">
+        <v>1</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I400" t="b">
+        <v>1</v>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K400" t="b">
+        <v>1</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="2" t="n">
+      <c r="A401" t="n">
         <v>36</v>
       </c>
-      <c r="B401" s="2" t="inlineStr">
+      <c r="B401" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C401" s="2" t="inlineStr">
+      <c r="C401" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D401" s="2" t="n">
+      <c r="D401" t="n">
         <v>4</v>
       </c>
-      <c r="E401" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F401" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G401" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H401" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I401" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J401" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K401" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L401" s="2" t="inlineStr">
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G401" t="b">
+        <v>1</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I401" t="b">
+        <v>1</v>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K401" t="b">
+        <v>1</v>
+      </c>
+      <c r="L401" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="2" t="n">
+      <c r="A402" t="n">
         <v>36</v>
       </c>
-      <c r="B402" s="2" t="inlineStr">
+      <c r="B402" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C402" s="2" t="inlineStr">
+      <c r="C402" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D402" s="2" t="n">
+      <c r="D402" t="n">
         <v>5</v>
       </c>
-      <c r="E402" s="2" t="inlineStr">
+      <c r="E402" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F402" s="2" t="inlineStr">
+      <c r="F402" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G402" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H402" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I402" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J402" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K402" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L402" s="2" t="inlineStr">
+      <c r="G402" t="b">
+        <v>1</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I402" t="b">
+        <v>1</v>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K402" t="b">
+        <v>1</v>
+      </c>
+      <c r="L402" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="F436" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G436" s="2" t="b">
@@ -23117,7 +23117,7 @@
       </c>
       <c r="L436" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -23197,7 +23197,7 @@
       </c>
       <c r="F438" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G438" s="2" t="b">
@@ -23221,7 +23221,7 @@
       </c>
       <c r="L438" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23249,7 +23249,7 @@
       </c>
       <c r="F439" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G439" s="2" t="b">
@@ -23273,7 +23273,7 @@
       </c>
       <c r="L439" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
+      <c r="A468" t="n">
         <v>43</v>
       </c>
-      <c r="B468" s="2" t="inlineStr">
+      <c r="B468" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" s="2" t="inlineStr">
+      <c r="C468" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" s="2" t="n">
+      <c r="D468" t="n">
         <v>4</v>
       </c>
-      <c r="E468" s="2" t="inlineStr">
+      <c r="E468" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G468" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J468" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L468" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G468" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" t="b">
+        <v>1</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K468" t="b">
+        <v>1</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
+      <c r="A469" t="n">
         <v>43</v>
       </c>
-      <c r="B469" s="2" t="inlineStr">
+      <c r="B469" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" s="2" t="inlineStr">
+      <c r="C469" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" s="2" t="n">
+      <c r="D469" t="n">
         <v>5</v>
       </c>
-      <c r="E469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J469" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L469" s="2" t="inlineStr">
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" t="b">
+        <v>1</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K469" t="b">
+        <v>1</v>
+      </c>
+      <c r="L469" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
+      <c r="A470" t="n">
         <v>43</v>
       </c>
-      <c r="B470" s="2" t="inlineStr">
+      <c r="B470" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" s="2" t="inlineStr">
+      <c r="C470" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" s="2" t="n">
+      <c r="D470" t="n">
         <v>6</v>
       </c>
-      <c r="E470" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J470" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L470" s="2" t="inlineStr">
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" t="b">
+        <v>1</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K470" t="b">
+        <v>1</v>
+      </c>
+      <c r="L470" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="2" t="n">
+      <c r="A471" t="n">
         <v>43</v>
       </c>
-      <c r="B471" s="2" t="inlineStr">
+      <c r="B471" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" s="2" t="inlineStr">
+      <c r="C471" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" s="2" t="n">
+      <c r="D471" t="n">
         <v>7</v>
       </c>
-      <c r="E471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J471" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L471" s="2" t="inlineStr">
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" t="b">
+        <v>1</v>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K471" t="b">
+        <v>1</v>
+      </c>
+      <c r="L471" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="2" t="n">
+      <c r="A472" t="n">
         <v>43</v>
       </c>
-      <c r="B472" s="2" t="inlineStr">
+      <c r="B472" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" s="2" t="inlineStr">
+      <c r="C472" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" s="2" t="n">
+      <c r="D472" t="n">
         <v>8</v>
       </c>
-      <c r="E472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J472" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L472" s="2" t="inlineStr">
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" t="b">
+        <v>1</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K472" t="b">
+        <v>1</v>
+      </c>
+      <c r="L472" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="2" t="n">
+      <c r="A473" t="n">
         <v>43</v>
       </c>
-      <c r="B473" s="2" t="inlineStr">
+      <c r="B473" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" s="2" t="inlineStr">
+      <c r="C473" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" s="2" t="n">
+      <c r="D473" t="n">
         <v>9</v>
       </c>
-      <c r="E473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J473" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L473" s="2" t="inlineStr">
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" t="b">
+        <v>1</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K473" t="b">
+        <v>1</v>
+      </c>
+      <c r="L473" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="2" t="n">
+      <c r="A474" t="n">
         <v>43</v>
       </c>
-      <c r="B474" s="2" t="inlineStr">
+      <c r="B474" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" s="2" t="inlineStr">
+      <c r="C474" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" s="2" t="n">
+      <c r="D474" t="n">
         <v>10</v>
       </c>
-      <c r="E474" s="2" t="inlineStr">
+      <c r="E474" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G474" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L474" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G474" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" t="b">
+        <v>1</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K474" t="b">
+        <v>1</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25358,104 +25358,104 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="2" t="n">
+      <c r="A480" t="n">
         <v>44</v>
       </c>
-      <c r="B480" s="2" t="inlineStr">
+      <c r="B480" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C480" s="2" t="inlineStr">
+      <c r="C480" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D480" s="2" t="n">
+      <c r="D480" t="n">
         <v>4</v>
       </c>
-      <c r="E480" s="2" t="inlineStr">
+      <c r="E480" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F480" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G480" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H480" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I480" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J480" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K480" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L480" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G480" t="b">
+        <v>1</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I480" t="b">
+        <v>1</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K480" t="b">
+        <v>1</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="2" t="n">
+      <c r="A481" t="n">
         <v>44</v>
       </c>
-      <c r="B481" s="2" t="inlineStr">
+      <c r="B481" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C481" s="2" t="inlineStr">
+      <c r="C481" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D481" s="2" t="n">
+      <c r="D481" t="n">
         <v>5</v>
       </c>
-      <c r="E481" s="2" t="inlineStr">
+      <c r="E481" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F481" s="2" t="inlineStr">
+      <c r="F481" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G481" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H481" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I481" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J481" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K481" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L481" s="2" t="inlineStr">
+      <c r="G481" t="b">
+        <v>1</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I481" t="b">
+        <v>1</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K481" t="b">
+        <v>1</v>
+      </c>
+      <c r="L481" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -26005,7 +26005,7 @@
       </c>
       <c r="F492" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G492" s="2" t="b">
@@ -26029,7 +26029,7 @@
       </c>
       <c r="L492" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="F493" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G493" s="2" t="b">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="L493" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
